--- a/Reinvest.xlsx
+++ b/Reinvest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Downloads/DICE Revenue Modeler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826EDFC-11B6-D342-A1B7-5116F86FCBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E715B52-3031-EC4A-87EE-E3667A17D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="6040" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,16 +497,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>44592</v>
+        <v>44615</v>
       </c>
       <c r="E2" s="2">
         <v>45291</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -523,16 +523,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>44592</v>
+        <v>44615</v>
       </c>
       <c r="E3" s="2">
         <v>45291</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>1</v>

--- a/Reinvest.xlsx
+++ b/Reinvest.xlsx
@@ -1,74 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E715B52-3031-EC4A-87EE-E3667A17D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="6040" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>campaign</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>reinvest_percentage</t>
-  </si>
-  <si>
-    <t>cpi</t>
-  </si>
-  <si>
-    <t>network_ratio</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Android Facebook Reinvest</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>iOS Facebook Reinvest</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,14 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,53 +354,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>campaign</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reinvest_percentage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cpi</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>network_ratio</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>additional_reinvest_monthly</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Android Facebook Reinvest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
       </c>
       <c r="D2" s="2">
         <v>44615</v>
@@ -503,24 +435,33 @@
         <v>45291</v>
       </c>
       <c r="F2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>iOS Facebook Reinvest</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
       </c>
       <c r="D3" s="2">
         <v>44615</v>
@@ -529,13 +470,16 @@
         <v>45291</v>
       </c>
       <c r="F3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Reinvest.xlsx
+++ b/Reinvest.xlsx
@@ -435,7 +435,7 @@
         <v>45291</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         <v>45291</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>
